--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Klicky</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,39 @@
   </si>
   <si>
     <t>切刀改装(原挤出机部分不重复列举)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷嘴清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆头螺丝M3*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝M2*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁氟龙管(内2外4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要自行切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8mm长度都可以
+建议平头,不容易干涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T形螺母M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角螺母M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +341,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -768,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -781,19 +820,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="22.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -903,7 +942,7 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -914,7 +953,7 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
@@ -926,7 +965,7 @@
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
@@ -936,7 +975,7 @@
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
@@ -945,7 +984,7 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
@@ -961,7 +1000,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -987,11 +1026,11 @@
       <c r="C21" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
-      <c r="A23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
@@ -1040,7 +1079,7 @@
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1051,14 +1090,14 @@
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="22.5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
@@ -1122,8 +1161,74 @@
         <v>17</v>
       </c>
     </row>
+    <row r="41" spans="1:4" ht="22.5">
+      <c r="A41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="8">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="27">
+      <c r="A46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A2:C2"/>

--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -58,14 +58,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>杯头螺丝M2*4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯头螺丝M2*14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>扎带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +206,14 @@
   <si>
     <t>六角螺母M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝M2*4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝M2*14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,9 +362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -809,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -820,45 +823,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="22.5">
-      <c r="A2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -876,7 +879,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -885,13 +888,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -903,7 +906,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -926,13 +929,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -942,56 +945,56 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
+      <c r="C13" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
+      <c r="A15" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
+      <c r="A16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -1001,7 +1004,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -1011,13 +1014,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1026,11 +1029,11 @@
       <c r="C21" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
-      <c r="A23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
@@ -1052,35 +1055,35 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>21</v>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1090,14 +1093,14 @@
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="22.5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
@@ -1107,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -1133,7 +1136,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -1158,19 +1161,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="22.5">
-      <c r="A41" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="8">
         <v>4</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="8">
         <v>2</v>
@@ -1188,7 +1191,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
@@ -1206,24 +1209,24 @@
     </row>
     <row r="46" spans="1:4" ht="27">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Klicky</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   <si>
     <t>螺丝M2*14</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻盖版本仅需1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -321,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -823,19 +830,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="22.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -945,7 +952,7 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -956,7 +963,7 @@
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -968,7 +975,7 @@
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
@@ -978,7 +985,7 @@
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
@@ -987,7 +994,7 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1029,11 +1036,11 @@
       <c r="C21" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
-      <c r="A23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
@@ -1082,7 +1089,7 @@
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1093,14 +1100,14 @@
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="22.5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
@@ -1165,11 +1172,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="22.5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
@@ -1205,7 +1212,9 @@
       <c r="B45" s="8">
         <v>2</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="27">
       <c r="A46" s="8" t="s">

--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Klicky</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,22 @@
   </si>
   <si>
     <t>翻盖版本仅需1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径6*高度3mm,建议N52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新外观才需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新外观固定风道用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,13 +411,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14652</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>212481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>111758</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -439,13 +458,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>106014</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -817,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -830,19 +849,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="22.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -952,7 +971,7 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -963,7 +982,7 @@
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -975,17 +994,17 @@
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
@@ -994,7 +1013,7 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1031,221 +1050,250 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="22.5">
-      <c r="A23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5">
+      <c r="A25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="32" spans="1:4" ht="22.5">
-      <c r="A32" s="11" t="s">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5">
+      <c r="A34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="22.5">
-      <c r="A41" s="11" t="s">
+    <row r="43" spans="1:4" ht="22.5">
+      <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="8">
-        <v>4</v>
-      </c>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="8">
-        <v>2</v>
-      </c>
-      <c r="C43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B44" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="27">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27">
+      <c r="A48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="C13:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
